--- a/biology/Histoire de la zoologie et de la botanique/Théodore_Papeians_de_Morchoven/Théodore_Papeians_de_Morchoven.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Théodore_Papeians_de_Morchoven/Théodore_Papeians_de_Morchoven.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Papeians_de_Morchoven</t>
+          <t>Théodore_Papeians_de_Morchoven</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chevalier Théodore François Marie Philippe Papeians de Morchoven dit van der Strepen, né à Gand le 13 mars 1792[1], y décédé le 11 février 1846[1], est un aristocrate, militaire et botaniste belge. Il fut président de la Société royale d'agriculture et de botanique de Gand, commissaire et curateur de l'École industrielle de Gand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chevalier Théodore François Marie Philippe Papeians de Morchoven dit van der Strepen, né à Gand le 13 mars 1792, y décédé le 11 février 1846, est un aristocrate, militaire et botaniste belge. Il fut président de la Société royale d'agriculture et de botanique de Gand, commissaire et curateur de l'École industrielle de Gand.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Papeians_de_Morchoven</t>
+          <t>Théodore_Papeians_de_Morchoven</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chevalier Papeians est un descendant de la famille Papeians de Morchoven. Il a un frère jumeau nommé Édouard, officier de cavalerie au sein de la Grande Armée et mort à Schönbrunn en 1813[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chevalier Papeians est un descendant de la famille Papeians de Morchoven. Il a un frère jumeau nommé Édouard, officier de cavalerie au sein de la Grande Armée et mort à Schönbrunn en 1813. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Papeians_de_Morchoven</t>
+          <t>Théodore_Papeians_de_Morchoven</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Campagnes napoléoniennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut élève à l'école impériale militaire de Saint-Germain pour ensuite intégrer la Grande Armée. Il fut d'abord sous-lieutenant au 12e régiment des chasseurs à cheval, avant d'être élevé au grade de lieutenant en 1813, et de capitaine d'escadron en 1814[3].
-Il prit part, durant sa carrière militaire, aux mémorables campagnes de Russie, de Saxe et de France[1]. Son engagement lors de la bataille de Leipzig lui valut la haute estime et les honneurs de la part du Général de Gigny, pour sa bravoure et sa conduite exemplaire. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut élève à l'école impériale militaire de Saint-Germain pour ensuite intégrer la Grande Armée. Il fut d'abord sous-lieutenant au 12e régiment des chasseurs à cheval, avant d'être élevé au grade de lieutenant en 1813, et de capitaine d'escadron en 1814.
+Il prit part, durant sa carrière militaire, aux mémorables campagnes de Russie, de Saxe et de France. Son engagement lors de la bataille de Leipzig lui valut la haute estime et les honneurs de la part du Général de Gigny, pour sa bravoure et sa conduite exemplaire. 
 Il quitta le service militaire après la Restauration. 
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Papeians_de_Morchoven</t>
+          <t>Théodore_Papeians_de_Morchoven</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,19 +593,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Après la guerre
-Lorsque la paix de Paris le renvoie dans sa ville natale, il dévoua son temps et ses ressources à l'étude des sciences, des arts et des lettres[1]. C'est à Paris qu'il prépare les fondements de son étude, en fréquentant successivement le Jardin des Plantes, la Sorbonne et, enfin, le Collège de France[1].
-Il part ensuite s'établir à Genève ou il est reçu comme élève par le botaniste suisse Augustin Pyramus de Candolle, qui achève alors le travail de René Desfontaines[1]. Pyramus de Candolle témoigne de ce que le travail du Chevalier Papeians atteste sa libido sciendi[1]. Cet enseignement fut déterminant en ce qu'il fixa définitivement son obsession et ses observations sur les objets et merveilles de la nature[1].
-Horticulture
-Il intègre la Société royale d'agriculture et de botanique de Gand, dont il devint président le 20 juin 1842[4]. 
-Cattleya Papeiansiana
-C'est durant cette période que fut nommée, en son honneur, la Cattleya de Papeians ou Cattleya Papeiansiana, parfois également appelée Cattleya Harrisoniana. Ce type d'orchidée fut identifiée par le naturaliste belge Charles Morren, qui la lui attribua[5]. 
-Ce dernier, dans ses Annales de la Société royale d'agriculture et de botanique de Gand : journal d'horticulture et des sciences accessoires, en rapporte les caractéristiques suivantes[4]:
-Cattleya de Papeians - Fleurs solitaires ou au nombre de deux, longuement pédonculées, droites; sépales oblongs lancéolés, les inférieurs arcués; pétales plus larges, oblongs lancéolés, un peu obtus, ondulés; labellum trilobé, lobes ondulés, denticulés, celui du milieu cordé, ondulé-crispé,à six stries sur l'axe, émarginé; pseudo-bulbes nuls, tige roide, feuilles au nombre de deux, larges lancéolées, obtuses, émarginées, charnues; spathe scarieux.
-Vie scientifique et industrielle belge
-Il prit naturellement part aux importants développements scientifiques de son époque, et fréquenta nombre de ses illustres pairs comme le mathématicien belge Adolphe Quetelet, avec qui il fut souscripteur d'une Études sur André Vésale[6] rédigée par le chirurgien et professeur de médecine de l'Université de Gand Adolphe Burggraeve.
-À sa mort, le naturaliste Charles Morren lui rendit hommage en reconnaissance de ses contributions, et lui dédie un élogieux obituaire dans ses Annales de la Société royale d'agriculture et de Botanique de Gand[7]. 
-Charles Morren le tenait en haute estime, pour son érudition et son mécénat[8], et ce d'autant plus qu'il le recommanda auprès du Gouverneur de Flandre orientale, le Vicomte Charles Vilain XIIII. Ce dernier était mandaté par le Ministre de l'intérieur, le Comte de Theux de Meylandt, pour trouver des candidats aux chaires de botanique de deux universités d'états[8]. Le Chevalier Papeians avait en effet observé la double citation que Pyramus de Candolle, alors compté parmi les botanistes les plus renommés, avait fait de son manuscrit sur le tissu cellulaire des plantes. Par voie de conséquence, et par intercession du Chevalier, Charles Morren fut nommé professeur extraordinaire à l'Université de Liège chargé de l'enseignement de la botanique, le 5 décembre 1835[9].
+          <t>Après la guerre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la paix de Paris le renvoie dans sa ville natale, il dévoua son temps et ses ressources à l'étude des sciences, des arts et des lettres. C'est à Paris qu'il prépare les fondements de son étude, en fréquentant successivement le Jardin des Plantes, la Sorbonne et, enfin, le Collège de France.
+Il part ensuite s'établir à Genève ou il est reçu comme élève par le botaniste suisse Augustin Pyramus de Candolle, qui achève alors le travail de René Desfontaines. Pyramus de Candolle témoigne de ce que le travail du Chevalier Papeians atteste sa libido sciendi. Cet enseignement fut déterminant en ce qu'il fixa définitivement son obsession et ses observations sur les objets et merveilles de la nature.
 </t>
         </is>
       </c>
@@ -600,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Papeians_de_Morchoven</t>
+          <t>Théodore_Papeians_de_Morchoven</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,12 +626,132 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Contributions scientifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Horticulture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il intègre la Société royale d'agriculture et de botanique de Gand, dont il devint président le 20 juin 1842. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Théodore_Papeians_de_Morchoven</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9odore_Papeians_de_Morchoven</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contributions scientifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Horticulture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cattleya Papeiansiana</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C'est durant cette période que fut nommée, en son honneur, la Cattleya de Papeians ou Cattleya Papeiansiana, parfois également appelée Cattleya Harrisoniana. Ce type d'orchidée fut identifiée par le naturaliste belge Charles Morren, qui la lui attribua. 
+Ce dernier, dans ses Annales de la Société royale d'agriculture et de botanique de Gand : journal d'horticulture et des sciences accessoires, en rapporte les caractéristiques suivantes:
+Cattleya de Papeians - Fleurs solitaires ou au nombre de deux, longuement pédonculées, droites; sépales oblongs lancéolés, les inférieurs arcués; pétales plus larges, oblongs lancéolés, un peu obtus, ondulés; labellum trilobé, lobes ondulés, denticulés, celui du milieu cordé, ondulé-crispé,à six stries sur l'axe, émarginé; pseudo-bulbes nuls, tige roide, feuilles au nombre de deux, larges lancéolées, obtuses, émarginées, charnues; spathe scarieux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Théodore_Papeians_de_Morchoven</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9odore_Papeians_de_Morchoven</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Contributions scientifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vie scientifique et industrielle belge</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il prit naturellement part aux importants développements scientifiques de son époque, et fréquenta nombre de ses illustres pairs comme le mathématicien belge Adolphe Quetelet, avec qui il fut souscripteur d'une Études sur André Vésale rédigée par le chirurgien et professeur de médecine de l'Université de Gand Adolphe Burggraeve.
+À sa mort, le naturaliste Charles Morren lui rendit hommage en reconnaissance de ses contributions, et lui dédie un élogieux obituaire dans ses Annales de la Société royale d'agriculture et de Botanique de Gand. 
+Charles Morren le tenait en haute estime, pour son érudition et son mécénat, et ce d'autant plus qu'il le recommanda auprès du Gouverneur de Flandre orientale, le Vicomte Charles Vilain XIIII. Ce dernier était mandaté par le Ministre de l'intérieur, le Comte de Theux de Meylandt, pour trouver des candidats aux chaires de botanique de deux universités d'états. Le Chevalier Papeians avait en effet observé la double citation que Pyramus de Candolle, alors compté parmi les botanistes les plus renommés, avait fait de son manuscrit sur le tissu cellulaire des plantes. Par voie de conséquence, et par intercession du Chevalier, Charles Morren fut nommé professeur extraordinaire à l'Université de Liège chargé de l'enseignement de la botanique, le 5 décembre 1835.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Théodore_Papeians_de_Morchoven</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9odore_Papeians_de_Morchoven</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur[10]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur
 </t>
         </is>
       </c>
